--- a/data/case1/5/Plm1_13.xlsx
+++ b/data/case1/5/Plm1_13.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.13470087871502301</v>
+        <v>-0.036339451647734222</v>
       </c>
       <c r="B1" s="0">
-        <v>0.13450326463545537</v>
+        <v>0.036264386098480372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0055509531461837014</v>
+        <v>0.0098432878224379294</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0049311180788009779</v>
+        <v>-0.010134456652020063</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.098000526030599389</v>
+        <v>0.11306239171234367</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.098412512586122602</v>
+        <v>-0.11340311284752858</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.18557593810030326</v>
+        <v>-0.17058276328828725</v>
       </c>
       <c r="B4" s="0">
-        <v>0.18458879261572747</v>
+        <v>0.16985824376000735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.17858879340952161</v>
+        <v>-0.16385824455573239</v>
       </c>
       <c r="B5" s="0">
-        <v>0.17659986530671379</v>
+        <v>0.16240920654651969</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.095969760156537909</v>
+        <v>-0.054251703151948494</v>
       </c>
       <c r="B6" s="0">
-        <v>0.095842392595945736</v>
+        <v>0.054216118310356443</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.075842393545199727</v>
+        <v>-0.034216119271624379</v>
       </c>
       <c r="B7" s="0">
-        <v>0.075547106646508766</v>
+        <v>0.034163188511438847</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.055547107604764889</v>
+        <v>-0.014163189476651183</v>
       </c>
       <c r="B8" s="0">
-        <v>0.055322834369958329</v>
+        <v>0.014135748232118495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.049322835213655658</v>
+        <v>-0.0081357490623386042</v>
       </c>
       <c r="B9" s="0">
-        <v>0.049142927921534074</v>
+        <v>0.0081126562404669755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.043142928774500433</v>
+        <v>-0.0021126570722103111</v>
       </c>
       <c r="B10" s="0">
-        <v>0.043123843212704571</v>
+        <v>0.0021135555315723309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.038623844053244483</v>
+        <v>0.0023864436513818532</v>
       </c>
       <c r="B11" s="0">
-        <v>0.038588437451426927</v>
+        <v>-0.0023952748906381771</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045397923791349104</v>
+        <v>0.0083952740589361419</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045151568902090045</v>
+        <v>-0.0084627410758044697</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039151569770758954</v>
+        <v>0.014462740246029782</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039084708941058643</v>
+        <v>-0.01449849453285168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084709866788792</v>
+        <v>-0.032214379883003019</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027052714976438352</v>
+        <v>0.032175390571645757</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021052715851284987</v>
+        <v>-0.02617539140321945</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027566906083983</v>
+        <v>0.026141961209670939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027567783369999</v>
+        <v>-0.020141962044320838</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004168286891773</v>
+        <v>0.02010308898518165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090041691675679658</v>
+        <v>-0.014103089824286208</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999990919400474</v>
+        <v>0.014090005254781879</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11895231231062553</v>
+        <v>-0.036107674751360008</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11881063371831857</v>
+        <v>0.036095886414372558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.089606693785228675</v>
+        <v>-0.027095887235272897</v>
       </c>
       <c r="B19" s="0">
-        <v>0.088847417098800729</v>
+        <v>0.027013017870027856</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.079847417937662257</v>
+        <v>-0.018013018697848437</v>
       </c>
       <c r="B20" s="0">
-        <v>0.079679882922846446</v>
+        <v>0.01800418390370595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042895965813941</v>
+        <v>-0.0090041847325323943</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999155810734</v>
+        <v>0.0089999991704692306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093931644922996327</v>
+        <v>-0.093927935881005453</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093624275703483306</v>
+        <v>0.093621879404166108</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084624276523256547</v>
+        <v>-0.08462188023135564</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124630200182793</v>
+        <v>0.08412412734192376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124631326521111</v>
+        <v>-0.042124128506798364</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998868130106</v>
+        <v>0.041999998829107099</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.074630105971479566</v>
+        <v>-0.10215750421659564</v>
       </c>
       <c r="B25" s="0">
-        <v>0.074540571094161123</v>
+        <v>0.10201886157765472</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.06854057191761953</v>
+        <v>-0.096018862402864613</v>
       </c>
       <c r="B26" s="0">
-        <v>0.068430222074738367</v>
+        <v>0.095843754749360244</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.062430222900942134</v>
+        <v>-0.089843755578891127</v>
       </c>
       <c r="B27" s="0">
-        <v>0.062071598906620729</v>
+        <v>0.089258111012885166</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.056071599744703882</v>
+        <v>-0.083258111861181483</v>
       </c>
       <c r="B28" s="0">
-        <v>0.055844761812590349</v>
+        <v>0.082872788394078079</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0438447627119114</v>
+        <v>-0.070872789314401885</v>
       </c>
       <c r="B29" s="0">
-        <v>0.043758087896735631</v>
+        <v>0.07070102473515405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.023758088870796001</v>
+        <v>-0.050701025740301997</v>
       </c>
       <c r="B30" s="0">
-        <v>0.023646988468008612</v>
+        <v>0.050385141211459761</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.008646989401391636</v>
+        <v>-0.035385142177137396</v>
       </c>
       <c r="B31" s="0">
-        <v>0.0086123817797627567</v>
+        <v>0.035297993251273141</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.012387617233075687</v>
+        <v>-0.014297994277663761</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.01244931845231978</v>
+        <v>0.014197333089365216</v>
       </c>
     </row>
   </sheetData>
